--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HayHue.xlsx
@@ -231,16 +231,16 @@
     <t>Hay Huế</t>
   </si>
   <si>
-    <t>Thiết bị hoạt động bình thường</t>
-  </si>
-  <si>
     <t>125.212.203.114,16060</t>
   </si>
   <si>
-    <t>+G9:I12I6H10:I12F9:I12</t>
-  </si>
-  <si>
     <t>Khách báo không lên nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
   </si>
 </sst>
 </file>
@@ -646,6 +646,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,31 +682,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,7 +992,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="B6 C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1024,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1105,58 +1105,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1181,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>44518</v>
       </c>
       <c r="C6" s="37">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>45</v>
@@ -1221,16 +1221,18 @@
         <v>64</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="40"/>
+        <v>66</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="66"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -1240,14 +1242,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1278,7 +1280,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1307,7 +1309,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1338,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1365,7 +1367,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1396,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1411,9 +1413,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="58" t="s">
-        <v>68</v>
-      </c>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1425,7 +1425,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1456,7 +1456,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2774,6 +2774,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2785,13 +2792,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2835,43 +2835,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2916,58 +2916,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -2992,23 +2992,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3065,7 +3065,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3241,7 +3241,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4559,13 +4559,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4577,6 +4570,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_HayHue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="35" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -646,9 +646,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,21 +683,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1024,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1105,58 +1105,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1181,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1280,7 +1280,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1456,7 +1456,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2774,13 +2774,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2792,6 +2785,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2802,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2835,43 +2835,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2916,58 +2916,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -2992,49 +2992,75 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="B6" s="37">
+        <v>44518</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44522</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="39">
+        <v>860906041181956</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="66"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3065,7 +3091,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3094,7 +3120,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3149,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3152,7 +3178,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3181,7 +3207,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3210,7 +3236,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3241,7 +3267,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3270,7 +3296,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3299,7 +3325,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3328,7 +3354,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3479,7 +3505,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3788,7 +3814,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3980,7 +4006,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4559,6 +4585,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4570,13 +4603,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
